--- a/readDataBase.xlsx
+++ b/readDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suyam\Documents\Python\Ditel_Easy_Excel\Phase_Contrast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA988D8-408C-4B9F-9793-B55B889DCFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9348DA1-2D48-40F4-B433-CAF91EB935B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="4230" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>周波数</t>
     <rPh sb="0" eb="3">
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>ALL0046</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALL0047</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -391,6 +395,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>90000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
